--- a/formulaires/Formulaire denregistrement de la revue.xlsx
+++ b/formulaires/Formulaire denregistrement de la revue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETS\2017_LOG_330\LOG330_TP05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETS\2017_LOG_330\LOG330_TP05\formulaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Nom du projet</t>
   </si>
@@ -118,6 +118,12 @@
   <si>
     <t>commentaire en entête des classes manquantes
 variable line non significatif</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Tony Cazorla</t>
   </si>
 </sst>
 </file>
@@ -562,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -878,7 +884,9 @@
       <c r="C29" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="37.5" customHeight="1">
@@ -889,7 +897,9 @@
       <c r="C30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="56.25" customHeight="1">
@@ -900,7 +910,9 @@
       <c r="C31" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" ht="56.25" customHeight="1">
@@ -911,7 +923,9 @@
       <c r="C32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="18.75" customHeight="1">
@@ -920,7 +934,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
